--- a/site/StructureDefinition-Diagnose.xlsx
+++ b/site/StructureDefinition-Diagnose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T07:55:24+00:00</t>
+    <t>2024-02-29T10:08:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-Diagnose.xlsx
+++ b/site/StructureDefinition-Diagnose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T10:08:17+00:00</t>
+    <t>2024-02-29T10:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-Diagnose.xlsx
+++ b/site/StructureDefinition-Diagnose.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$111</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4065" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4253" uniqueCount="540">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://krebsregister-rlp.de/fhir/tumorboard/StructureDefinition/Diagnose</t>
+    <t>http://idg-rlp.de/fhir/tumorkonferenzen/StructureDefinition/Diagnose</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T10:35:30+00:00</t>
+    <t>2024-04-07T13:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1039,12 +1039,6 @@
     <t>Condition.code.coding.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
     <t>Condition.code.coding.extension:Mehrfachcodierungs-Kennzeichen</t>
   </si>
   <si>
@@ -1083,6 +1077,12 @@
     <t>Condition.code.coding.extension.extension</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
     <t>Condition.code.coding.extension:Seitenlokalisation.url</t>
   </si>
   <si>
@@ -1282,7 +1282,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://krebsregister-rlp.de/fhir/tumorboard/StructureDefinition/TumorPatient)
+    <t xml:space="preserve">Reference(http://idg-rlp.de/fhir/tumorkonferenzen/StructureDefinition/TumorPatient)
 </t>
   </si>
   <si>
@@ -1642,6 +1642,68 @@
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="annotation"].value</t>
+  </si>
+  <si>
+    <t>Condition.note.id</t>
+  </si>
+  <si>
+    <t>Condition.note.extension</t>
+  </si>
+  <si>
+    <t>Condition.note.author[x]</t>
+  </si>
+  <si>
+    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+string</t>
+  </si>
+  <si>
+    <t>Individual responsible for the annotation</t>
+  </si>
+  <si>
+    <t>The individual responsible for making the annotation.</t>
+  </si>
+  <si>
+    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
+  </si>
+  <si>
+    <t>Annotation.author[x]</t>
+  </si>
+  <si>
+    <t>Act.participant[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>Condition.note.time</t>
+  </si>
+  <si>
+    <t>When the annotation was made</t>
+  </si>
+  <si>
+    <t>Indicates when this particular annotation was made.</t>
+  </si>
+  <si>
+    <t>Annotation.time</t>
+  </si>
+  <si>
+    <t>Act.effectiveTime</t>
+  </si>
+  <si>
+    <t>Condition.note.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>The annotation  - text content (as markdown)</t>
+  </si>
+  <si>
+    <t>The text of the annotation in markdown format.</t>
+  </si>
+  <si>
+    <t>Annotation.text</t>
+  </si>
+  <si>
+    <t>Act.text</t>
   </si>
 </sst>
 </file>
@@ -1953,7 +2015,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP106"/>
+  <dimension ref="A1:AP111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8156,7 +8218,7 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8178,12 +8240,14 @@
         <v>135</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>326</v>
+        <v>136</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -8256,7 +8320,7 @@
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>77</v>
@@ -8267,13 +8331,13 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>325</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -8295,13 +8359,13 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8387,13 +8451,13 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>325</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>77</v>
@@ -8415,13 +8479,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8507,10 +8571,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8625,10 +8689,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8654,10 +8718,10 @@
         <v>135</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9852,10 +9916,10 @@
         <v>369</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -14630,7 +14694,7 @@
         <v>79</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>77</v>
@@ -14729,8 +14793,602 @@
         <v>77</v>
       </c>
     </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AP107" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AP108" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AP109" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AP110" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AO111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AP111" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AP106">
+  <autoFilter ref="A1:AP111">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14740,7 +15398,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI105">
+  <conditionalFormatting sqref="A2:AI110">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
